--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value753.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value753.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9370088059038304</v>
+        <v>0.9952539801597595</v>
       </c>
       <c r="B1">
-        <v>2.077168079831488</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>5.123891082477837</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.471676169117677</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.284734390010839</v>
+        <v>1.221765995025635</v>
       </c>
     </row>
   </sheetData>
